--- a/Research/Tutorial data.xlsx
+++ b/Research/Tutorial data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A 2026\Kuliah\GitHub\LMS Editor\W-Pro-Editor\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB15450-C042-47E4-B78B-1D983CB8CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21436AE4-6B28-4D51-914E-87A97953C983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="305">
   <si>
     <t>Student_ID</t>
   </si>
@@ -896,13 +897,108 @@
   </si>
   <si>
     <t>77.33</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Paired t test (t, p)</t>
+  </si>
+  <si>
+    <t>Wilcoxon test (W, p)</t>
+  </si>
+  <si>
+    <t>Pre test (n = 97)</t>
+  </si>
+  <si>
+    <t>63.05</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>Post test (n = 97)</t>
+  </si>
+  <si>
+    <t>80.23</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(96) = 19.44, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">W = 36.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 3.71 × 10⁻¹⁷</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +1008,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -960,11 +1064,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -3871,4 +3984,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B780A1EB-EA7F-4E99-9367-CDF724550EE9}">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>